--- a/data/trans_camb/P19C08-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,98</t>
+          <t>-0,48; 2,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,53</t>
+          <t>-1,58; 0,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,63</t>
+          <t>-1,35; 0,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,66</t>
+          <t>-1,15; 0,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,0</t>
+          <t>-1,95; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,73</t>
+          <t>-1,37; 0,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,68</t>
+          <t>-0,55; 1,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,15</t>
+          <t>-1,17; 0,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,51</t>
+          <t>-0,91; 0,54</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-82,21; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,2; 776,05</t>
+          <t>-80,42; 841,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-84,43; 290,29</t>
+          <t>-81,01; 344,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,88</t>
+          <t>-1,57; 0,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,0</t>
+          <t>-2,54; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,47</t>
+          <t>-1,69; 0,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,42</t>
+          <t>-2,59; 0,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,07</t>
+          <t>-2,69; 0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,23</t>
+          <t>-2,7; 0,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,4</t>
+          <t>-1,42; 0,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; -0,12</t>
+          <t>-1,83; -0,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,08</t>
+          <t>-1,62; 0,13</t>
         </is>
       </c>
     </row>
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 129,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 160,29</t>
+          <t>-88,5; 152,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 140,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-90,85; 50,02</t>
+          <t>-91,43; 63,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,44</t>
+          <t>0,1; 1,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,9</t>
+          <t>0,0; 5,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,3</t>
+          <t>0,14; 1,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 0,41</t>
+          <t>-0,56; 0,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,14</t>
+          <t>-0,66; 0,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,08</t>
+          <t>-0,88; 0,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,1</t>
+          <t>-0,44; 1,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,34</t>
+          <t>-0,86; 0,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,85</t>
+          <t>-0,6; 0,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,56</t>
+          <t>-0,36; 0,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,13</t>
+          <t>-0,6; 0,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,33</t>
+          <t>-0,44; 0,33</t>
         </is>
       </c>
     </row>
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-95,31; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-63,53; 512,97</t>
+          <t>-64,67; 351,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 193,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-80,43; 263,8</t>
+          <t>-80,27; 258,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,66</t>
+          <t>0,47; 2,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,08</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,73</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,69</t>
+          <t>-1,53; 0,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,42</t>
+          <t>-1,72; 0,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,38; -0,04</t>
+          <t>-2,13; -0,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,11</t>
+          <t>-0,59; 1,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,37</t>
+          <t>-1,1; 0,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,88</t>
+          <t>-0,97; 0,77</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-70,24; 658,67</t>
+          <t>-69,94; 666,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,86</t>
+          <t>-1,41; 0,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,0</t>
+          <t>-2,27; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,0</t>
+          <t>-2,28; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; -0,1</t>
+          <t>-0,88; -0,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,71</t>
+          <t>-0,42; 0,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,86</t>
+          <t>-0,35; 0,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; -0,1</t>
+          <t>-1,03; -0,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,48</t>
+          <t>-0,53; 0,47</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-73,39; 1056,29</t>
+          <t>-69,06; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,67; —</t>
+          <t>-83,4; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-60,24; 572,58</t>
+          <t>-64,46; 696,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-85,46; 422,96</t>
+          <t>-84,43; 465,68</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 0,72</t>
+          <t>-0,09; 0,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,08</t>
+          <t>-0,46; 0,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,5</t>
+          <t>-0,25; 0,47</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,45</t>
+          <t>-0,34; 0,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,01</t>
+          <t>-0,7; -0,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,16</t>
+          <t>-0,52; 0,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 0,46</t>
+          <t>-0,09; 0,49</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; -0,06</t>
+          <t>-0,48; -0,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,21</t>
+          <t>-0,31; 0,2</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 340,93</t>
+          <t>-22,05; 369,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-90,92; 63,35</t>
+          <t>-89,73; 62,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 238,85</t>
+          <t>-57,09; 243,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-46,25; 133,31</t>
+          <t>-45,66; 132,09</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-89,32; 18,65</t>
+          <t>-90,82; 12,5</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-63,99; 51,74</t>
+          <t>-66,54; 54,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 141,23</t>
+          <t>-17,24; 173,36</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-82,54; -11,23</t>
+          <t>-83,68; -9,52</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 67,69</t>
+          <t>-50,82; 59,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C08-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
